--- a/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16BBF69-BF23-42E9-9A0F-C7163503A0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24BF110-C792-4516-AD1D-986038941A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{221C1956-33A4-4F91-BA7A-46F83FF3B30D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{533F36A0-3523-47D7-BEAD-A4C182FCA59B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,183 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
     <t>10,79%</t>
   </si>
   <si>
@@ -118,30 +274,6 @@
     <t>11,93%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>41,03%</t>
   </si>
   <si>
@@ -169,24 +301,6 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>47,41%</t>
   </si>
   <si>
@@ -199,9 +313,6 @@
     <t>50,89%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
     <t>55,8%</t>
   </si>
   <si>
@@ -214,115 +325,40 @@
     <t>52,66%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>10,61%</t>
@@ -352,27 +388,6 @@
     <t>12,12%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>40,77%</t>
   </si>
   <si>
@@ -400,21 +415,6 @@
     <t>43,54%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>47,8%</t>
   </si>
   <si>
@@ -445,6 +445,138 @@
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>8,66%</t>
   </si>
   <si>
@@ -469,30 +601,6 @@
     <t>12,11%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>37,84%</t>
   </si>
   <si>
@@ -520,18 +628,6 @@
     <t>39,06%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>52,17%</t>
   </si>
   <si>
@@ -559,100 +655,31 @@
     <t>57,29%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>8,62%</t>
@@ -682,21 +709,6 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
     <t>36,84%</t>
   </si>
   <si>
@@ -721,18 +733,6 @@
     <t>32,52%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>53,47%</t>
   </si>
   <si>
@@ -763,6 +763,138 @@
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
   </si>
   <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>7,5%</t>
   </si>
   <si>
@@ -790,30 +922,6 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
     <t>38,41%</t>
   </si>
   <si>
@@ -841,9 +949,6 @@
     <t>42,33%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>52,96%</t>
   </si>
   <si>
@@ -868,109 +973,19 @@
     <t>55,96%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>7,17%</t>
@@ -1000,18 +1015,6 @@
     <t>9,74%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
     <t>37,29%</t>
   </si>
   <si>
@@ -1037,9 +1040,6 @@
   </si>
   <si>
     <t>39,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
   <si>
     <t>54,46%</t>
@@ -1458,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BA7DE4-8E1D-429D-B579-1C079C97313C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C5D1F-A61B-4754-86CE-088C7008EEC4}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1848,10 +1848,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>29887</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1863,34 +1863,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>21969</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>78</v>
-      </c>
-      <c r="N10" s="7">
-        <v>51855</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,49 +1899,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>684</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1481</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
       <c r="I11" s="7">
-        <v>683</v>
+        <v>1277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>2164</v>
+        <v>1961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,49 +1950,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>113675</v>
+        <v>6428</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8913</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>23</v>
+      </c>
+      <c r="N12" s="7">
+        <v>15341</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>157</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106089</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="7">
-        <v>326</v>
-      </c>
-      <c r="N12" s="7">
-        <v>219764</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,49 +2001,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>635</v>
+        <v>25933</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21666</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="7">
+        <v>71</v>
+      </c>
+      <c r="N13" s="7">
+        <v>47599</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>537</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1171</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,49 +2052,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>131346</v>
+        <v>32341</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24187</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>85</v>
+      </c>
+      <c r="N14" s="7">
+        <v>56528</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="7">
-        <v>199</v>
-      </c>
-      <c r="I14" s="7">
-        <v>133989</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="7">
-        <v>397</v>
-      </c>
-      <c r="N14" s="7">
-        <v>265335</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,102 +2103,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>415</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7">
-        <v>277023</v>
+        <v>65387</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>263267</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>806</v>
+        <v>182</v>
       </c>
       <c r="N15" s="7">
-        <v>540290</v>
+        <v>121429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>6428</v>
+        <v>635</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>537</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1171</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8913</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>23</v>
-      </c>
-      <c r="N16" s="7">
-        <v>15341</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,49 +2207,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1481</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>684</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
       <c r="I17" s="7">
-        <v>1277</v>
+        <v>683</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1961</v>
+        <v>2164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,49 +2258,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>25933</v>
+        <v>29887</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="7">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7">
+        <v>21969</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="7">
+        <v>78</v>
+      </c>
+      <c r="N18" s="7">
+        <v>51855</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21666</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="7">
-        <v>71</v>
-      </c>
-      <c r="N18" s="7">
-        <v>47599</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,49 +2309,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>113675</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="7">
+        <v>157</v>
+      </c>
+      <c r="I19" s="7">
+        <v>106089</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="7">
+        <v>326</v>
+      </c>
+      <c r="N19" s="7">
+        <v>219764</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,40 +2360,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="D20" s="7">
-        <v>32341</v>
+        <v>131346</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="I20" s="7">
-        <v>24187</v>
+        <v>133989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>397</v>
       </c>
       <c r="N20" s="7">
-        <v>56528</v>
+        <v>265335</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>92</v>
@@ -2411,49 +2411,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>99</v>
+        <v>415</v>
       </c>
       <c r="D21" s="7">
-        <v>65387</v>
+        <v>277023</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>263267</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>182</v>
+        <v>806</v>
       </c>
       <c r="N21" s="7">
-        <v>121429</v>
+        <v>540290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,49 +2464,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>36315</v>
+        <v>635</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>537</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="7">
-        <v>46</v>
-      </c>
-      <c r="I22" s="7">
-        <v>30881</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1171</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M22" s="7">
-        <v>101</v>
-      </c>
-      <c r="N22" s="7">
-        <v>67196</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2521,13 @@
         <v>2165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2536,13 +2536,13 @@
         <v>1960</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2551,13 +2551,13 @@
         <v>4126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,49 +2566,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>139608</v>
+        <v>36315</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7">
+        <v>46</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30881</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>101</v>
+      </c>
+      <c r="N24" s="7">
+        <v>67196</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7">
-        <v>189</v>
-      </c>
-      <c r="I24" s="7">
-        <v>127755</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="7">
-        <v>397</v>
-      </c>
-      <c r="N24" s="7">
-        <v>267362</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,49 +2617,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="D25" s="7">
-        <v>635</v>
+        <v>139608</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="7">
+        <v>189</v>
+      </c>
+      <c r="I25" s="7">
+        <v>127755</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>537</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>397</v>
+      </c>
+      <c r="N25" s="7">
+        <v>267362</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1171</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2725,13 @@
         <v>342410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>474</v>
@@ -2740,13 +2740,13 @@
         <v>319309</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>988</v>
@@ -2755,13 +2755,13 @@
         <v>661719</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CA80FE-D013-4CE8-A5D1-9DDAD8C34633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBAE854-50A6-4727-9568-A7CCCE5DF3E6}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,49 +3170,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>22856</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H10" s="7">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26425</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="7">
-        <v>70</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49281</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,49 +3221,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2756</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1594</v>
+        <v>612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>4350</v>
+        <v>612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,49 +3272,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5615</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6708</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="7">
+        <v>17</v>
+      </c>
+      <c r="N12" s="7">
+        <v>12322</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="7">
-        <v>99930</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="7">
-        <v>118</v>
-      </c>
-      <c r="I12" s="7">
-        <v>82395</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" s="7">
-        <v>266</v>
-      </c>
-      <c r="N12" s="7">
-        <v>182325</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,49 +3323,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>767</v>
+        <v>21739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>28224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>767</v>
+        <v>49963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,49 +3374,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>137766</v>
+        <v>38820</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="7">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7">
+        <v>36425</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>106</v>
+      </c>
+      <c r="N14" s="7">
+        <v>75245</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="7">
-        <v>198</v>
-      </c>
-      <c r="I14" s="7">
-        <v>138875</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="7">
-        <v>401</v>
-      </c>
-      <c r="N14" s="7">
-        <v>276641</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,102 +3425,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>389</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>264074</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249289</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>744</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>513363</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5615</v>
+        <v>767</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6708</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>767</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="7">
-        <v>12322</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,49 +3529,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>612</v>
+        <v>1594</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>612</v>
+        <v>4350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,49 +3580,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>21739</v>
+        <v>22856</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="7">
+        <v>37</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26425</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="7">
+        <v>70</v>
+      </c>
+      <c r="N18" s="7">
+        <v>49281</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7">
-        <v>39</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28224</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" s="7">
-        <v>69</v>
-      </c>
-      <c r="N18" s="7">
-        <v>49963</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,46 +3631,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>99930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>82395</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" s="7">
+        <v>266</v>
+      </c>
+      <c r="N19" s="7">
+        <v>182325</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>195</v>
@@ -3682,10 +3682,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7">
-        <v>38820</v>
+        <v>137766</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>196</v>
@@ -3697,10 +3697,10 @@
         <v>198</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="I20" s="7">
-        <v>36425</v>
+        <v>138875</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>199</v>
@@ -3712,10 +3712,10 @@
         <v>201</v>
       </c>
       <c r="M20" s="7">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="N20" s="7">
-        <v>75245</v>
+        <v>276641</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>202</v>
@@ -3733,49 +3733,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>264074</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>744</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>513363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,49 +3786,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>28471</v>
+        <v>767</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>767</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="7">
-        <v>46</v>
-      </c>
-      <c r="I22" s="7">
-        <v>33133</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" s="7">
-        <v>87</v>
-      </c>
-      <c r="N22" s="7">
-        <v>61604</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3843,13 @@
         <v>2756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3858,13 +3858,13 @@
         <v>2206</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3873,13 +3873,13 @@
         <v>4962</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +3888,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>121669</v>
+        <v>28471</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="7">
+        <v>46</v>
+      </c>
+      <c r="I24" s="7">
+        <v>33133</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>87</v>
+      </c>
+      <c r="N24" s="7">
+        <v>61604</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="7">
-        <v>157</v>
-      </c>
-      <c r="I24" s="7">
-        <v>110619</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M24" s="7">
-        <v>335</v>
-      </c>
-      <c r="N24" s="7">
-        <v>232288</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,49 +3939,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D25" s="7">
-        <v>767</v>
+        <v>121669</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="7">
+        <v>157</v>
+      </c>
+      <c r="I25" s="7">
+        <v>110619</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>228</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="N25" s="7">
-        <v>767</v>
+        <v>232288</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4047,13 @@
         <v>330248</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -4062,13 +4062,13 @@
         <v>321258</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>937</v>
@@ -4077,13 +4077,13 @@
         <v>651506</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4102,7 +4102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74B57B9-55F4-4BC8-8646-E7A286DB94A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64551FA9-FEB3-42B3-B209-2A8EDC9B53DD}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,49 +4492,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>21023</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20484</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>41507</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,49 +4543,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>708</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1895</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>3155</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2868</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
       <c r="N11" s="7">
-        <v>6023</v>
+        <v>2603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,49 +4594,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>107651</v>
+        <v>4708</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>102638</v>
+        <v>10012</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>210290</v>
+        <v>14720</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,49 +4645,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>26080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>25518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>51598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,46 +4696,46 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>148412</v>
+        <v>46915</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>81</v>
+      </c>
+      <c r="I14" s="7">
+        <v>53289</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="7">
-        <v>194</v>
-      </c>
-      <c r="I14" s="7">
-        <v>138582</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>147</v>
+      </c>
+      <c r="N14" s="7">
+        <v>100203</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="M14" s="7">
-        <v>394</v>
-      </c>
-      <c r="N14" s="7">
-        <v>286993</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>275</v>
@@ -4747,102 +4747,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>280241</v>
+        <v>78411</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>264572</v>
+        <v>90714</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="N15" s="7">
-        <v>544813</v>
+        <v>169124</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4708</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>10012</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,49 +4851,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>708</v>
+        <v>3155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1895</v>
+        <v>2868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>2603</v>
+        <v>6023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,49 +4902,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>26080</v>
+        <v>21023</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="7">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7">
+        <v>20484</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M18" s="7">
+        <v>55</v>
+      </c>
+      <c r="N18" s="7">
+        <v>41507</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="H18" s="7">
-        <v>38</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25518</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M18" s="7">
-        <v>77</v>
-      </c>
-      <c r="N18" s="7">
-        <v>51598</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,49 +4953,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>107651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="7">
+        <v>146</v>
+      </c>
+      <c r="I19" s="7">
+        <v>102638</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M19" s="7">
+        <v>293</v>
+      </c>
+      <c r="N19" s="7">
+        <v>210290</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,46 +5004,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="D20" s="7">
-        <v>46915</v>
+        <v>148412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="I20" s="7">
-        <v>53289</v>
+        <v>138582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="N20" s="7">
-        <v>100203</v>
+        <v>286993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>310</v>
@@ -5055,49 +5055,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="D21" s="7">
-        <v>78411</v>
+        <v>280241</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>90714</v>
+        <v>264572</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="N21" s="7">
-        <v>169124</v>
+        <v>544813</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,49 +5108,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>25731</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H22" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>30496</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>56227</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5165,13 @@
         <v>3864</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -5180,13 +5180,13 @@
         <v>4763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5195,13 +5195,13 @@
         <v>8626</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,49 +5210,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7">
-        <v>133731</v>
+        <v>25731</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="7">
+        <v>42</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30496</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M24" s="7">
+        <v>77</v>
+      </c>
+      <c r="N24" s="7">
+        <v>56227</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="7">
-        <v>184</v>
-      </c>
-      <c r="I24" s="7">
-        <v>128156</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M24" s="7">
-        <v>370</v>
-      </c>
-      <c r="N24" s="7">
-        <v>261887</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,49 +5261,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>133731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H25" s="7">
+        <v>184</v>
+      </c>
+      <c r="I25" s="7">
+        <v>128156</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M25" s="7">
+        <v>370</v>
+      </c>
+      <c r="N25" s="7">
+        <v>261887</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5369,13 @@
         <v>358652</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>508</v>
@@ -5384,13 +5384,13 @@
         <v>355286</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1000</v>
@@ -5399,13 +5399,13 @@
         <v>713937</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24BF110-C792-4516-AD1D-986038941A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6852B3AB-D9C2-4313-A932-BC932A73796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{533F36A0-3523-47D7-BEAD-A4C182FCA59B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B19C7D8-5452-4E63-98B9-C6BFC6A0B9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="347">
   <si>
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
@@ -67,1006 +67,1018 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1089,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1173,39 +1185,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1257,7 +1269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1368,13 +1380,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1383,6 +1388,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1447,19 +1459,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C5D1F-A61B-4754-86CE-088C7008EEC4}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3FE17-D49F-4F99-BD4C-3681FE00C4EF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1850,47 +1882,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,49 +1925,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,49 +1970,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>23</v>
-      </c>
-      <c r="N12" s="7">
-        <v>15341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,49 +2015,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,49 +2060,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>24187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7">
-        <v>56528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,102 +2105,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>99</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>182</v>
-      </c>
-      <c r="N15" s="7">
-        <v>121429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>635</v>
+        <v>59369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>537</v>
+        <v>62746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="N16" s="7">
-        <v>1171</v>
+        <v>122115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,49 +2203,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7">
-        <v>1481</v>
+        <v>59210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>48215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="N17" s="7">
-        <v>2164</v>
+        <v>107424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,49 +2254,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>29887</v>
+        <v>18236</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>21969</v>
+        <v>13973</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N18" s="7">
-        <v>51855</v>
+        <v>32209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,49 +2305,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>113675</v>
+        <v>1486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>106089</v>
+        <v>1960</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>326</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>219764</v>
+        <v>3446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,49 +2356,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>131346</v>
+        <v>635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>133989</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>397</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>265335</v>
+        <v>635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,102 +2407,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="D21" s="7">
-        <v>277023</v>
+        <v>138936</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>263267</v>
+        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>806</v>
+        <v>398</v>
       </c>
       <c r="N21" s="7">
-        <v>540290</v>
+        <v>265830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="D22" s="7">
-        <v>635</v>
+        <v>104319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="I22" s="7">
-        <v>537</v>
+        <v>95430</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="N22" s="7">
-        <v>1171</v>
+        <v>199749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,49 +2511,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
-        <v>2165</v>
+        <v>80398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
-        <v>1960</v>
+        <v>79540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="N23" s="7">
-        <v>4126</v>
+        <v>159938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,49 +2562,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>36315</v>
+        <v>18079</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>30881</v>
+        <v>16908</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="N24" s="7">
-        <v>67196</v>
+        <v>34987</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,49 +2613,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>139608</v>
+        <v>680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>127755</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
-        <v>397</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>267362</v>
+        <v>680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,49 +2664,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>163687</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>158176</v>
+        <v>537</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>482</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>321863</v>
+        <v>537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,55 +2715,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203475</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>284</v>
+      </c>
+      <c r="I27" s="7">
+        <v>192415</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>590</v>
+      </c>
+      <c r="N27" s="7">
+        <v>395890</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>247</v>
+      </c>
+      <c r="D28" s="7">
+        <v>163687</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="7">
+        <v>235</v>
+      </c>
+      <c r="I28" s="7">
+        <v>158176</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="7">
+        <v>482</v>
+      </c>
+      <c r="N28" s="7">
+        <v>321863</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>208</v>
+      </c>
+      <c r="D29" s="7">
+        <v>139608</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7">
+        <v>189</v>
+      </c>
+      <c r="I29" s="7">
+        <v>127755</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>397</v>
+      </c>
+      <c r="N29" s="7">
+        <v>267362</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7">
+        <v>36315</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="7">
+        <v>46</v>
+      </c>
+      <c r="I30" s="7">
+        <v>30881</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="7">
+        <v>101</v>
+      </c>
+      <c r="N30" s="7">
+        <v>67196</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2165</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1960</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4126</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>635</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>537</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1171</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>514</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>342410</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>319309</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>988</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>661719</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>54</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2780,8 +3090,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBAE854-50A6-4727-9568-A7CCCE5DF3E6}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA9C0D9-C973-40A3-BEFD-9EC4DF2D3C56}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2797,7 +3107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3172,47 +3482,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,47 +3527,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,49 +3570,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
-      </c>
-      <c r="N12" s="7">
-        <v>12322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,49 +3615,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
-      </c>
-      <c r="N13" s="7">
-        <v>49963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,49 +3660,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7">
-        <v>38820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
-      </c>
-      <c r="I14" s="7">
-        <v>36425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>106</v>
-      </c>
-      <c r="N14" s="7">
-        <v>75245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,102 +3705,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>767</v>
+        <v>83709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>88994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N16" s="7">
-        <v>767</v>
+        <v>172703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,49 +3803,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
-        <v>2756</v>
+        <v>57171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>1594</v>
+        <v>53329</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="N17" s="7">
-        <v>4350</v>
+        <v>110500</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,49 +3854,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>22856</v>
+        <v>15230</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>26425</v>
+        <v>11664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>49281</v>
+        <v>26894</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3905,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>99930</v>
+        <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>82395</v>
+        <v>1528</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
-        <v>266</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>182325</v>
+        <v>2092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,49 +3956,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>137766</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>138875</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>276641</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,102 +4007,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>264074</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249289</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>744</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>513363</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7">
-        <v>767</v>
+        <v>92877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>86305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="N22" s="7">
-        <v>767</v>
+        <v>179183</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,49 +4111,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7">
-        <v>2756</v>
+        <v>64498</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="I23" s="7">
-        <v>2206</v>
+        <v>57291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="N23" s="7">
-        <v>4962</v>
+        <v>121789</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +4162,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>28471</v>
+        <v>13240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>33133</v>
+        <v>21469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="M24" s="7">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N24" s="7">
-        <v>61604</v>
+        <v>34710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,49 +4213,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>121669</v>
+        <v>2192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>110619</v>
+        <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
-        <v>335</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>232288</v>
+        <v>2870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,49 +4264,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>176586</v>
+        <v>767</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>175299</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>351886</v>
+        <v>767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,55 +4315,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>256</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173574</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>235</v>
+      </c>
+      <c r="I27" s="7">
+        <v>165744</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>491</v>
+      </c>
+      <c r="N27" s="7">
+        <v>339318</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>257</v>
+      </c>
+      <c r="D28" s="7">
+        <v>176586</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="7">
+        <v>250</v>
+      </c>
+      <c r="I28" s="7">
+        <v>175299</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" s="7">
+        <v>507</v>
+      </c>
+      <c r="N28" s="7">
+        <v>351886</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>178</v>
+      </c>
+      <c r="D29" s="7">
+        <v>121669</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="7">
+        <v>157</v>
+      </c>
+      <c r="I29" s="7">
+        <v>110619</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" s="7">
+        <v>335</v>
+      </c>
+      <c r="N29" s="7">
+        <v>232288</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28471</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="7">
+        <v>46</v>
+      </c>
+      <c r="I30" s="7">
+        <v>33133</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" s="7">
+        <v>87</v>
+      </c>
+      <c r="N30" s="7">
+        <v>61604</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2756</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2206</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4962</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>767</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>767</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>481</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>330248</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>456</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321258</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>937</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>651506</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>54</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4102,8 +4690,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64551FA9-FEB3-42B3-B209-2A8EDC9B53DD}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2970FA-6F94-4E1E-9DFB-776D57FFCC8C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4119,7 +4707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4494,47 +5082,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,49 +5125,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,49 +5170,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>22</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,49 +5215,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>51598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,49 +5260,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7">
-        <v>46915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>81</v>
-      </c>
-      <c r="I14" s="7">
-        <v>53289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>147</v>
-      </c>
-      <c r="N14" s="7">
-        <v>100203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,102 +5305,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>113</v>
-      </c>
-      <c r="D15" s="7">
-        <v>78411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>250</v>
-      </c>
-      <c r="N15" s="7">
-        <v>169124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>104820</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>106630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>211451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,49 +5403,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>3155</v>
+        <v>64536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>2868</v>
+        <v>58615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="N17" s="7">
-        <v>6023</v>
+        <v>123151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,49 +5454,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>21023</v>
+        <v>15257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>20484</v>
+        <v>18043</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="M18" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N18" s="7">
-        <v>41507</v>
+        <v>33299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,49 +5505,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>107651</v>
+        <v>708</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>102638</v>
+        <v>1895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>210290</v>
+        <v>2603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,49 +5556,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>148412</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>138582</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>286993</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,102 +5607,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>280241</v>
+        <v>185321</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>264572</v>
+        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>750</v>
+        <v>524</v>
       </c>
       <c r="N21" s="7">
-        <v>544813</v>
+        <v>370505</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>90506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>85240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>175746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,49 +5711,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>3864</v>
+        <v>69195</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7">
-        <v>4763</v>
+        <v>69541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="N23" s="7">
-        <v>8626</v>
+        <v>138736</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,49 +5762,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>25731</v>
+        <v>10474</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="H24" s="7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>30496</v>
+        <v>12453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="M24" s="7">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="N24" s="7">
-        <v>56227</v>
+        <v>22928</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,49 +5813,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>133731</v>
+        <v>3155</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>128156</v>
+        <v>2868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>261887</v>
+        <v>6023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,49 +5864,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>195326</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>191871</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>337</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>387197</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,55 +5915,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170102</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343433</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>266</v>
+      </c>
+      <c r="D28" s="7">
+        <v>195326</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="7">
+        <v>275</v>
+      </c>
+      <c r="I28" s="7">
+        <v>191871</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M28" s="7">
+        <v>541</v>
+      </c>
+      <c r="N28" s="7">
+        <v>387197</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>186</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133731</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="7">
+        <v>184</v>
+      </c>
+      <c r="I29" s="7">
+        <v>128156</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M29" s="7">
+        <v>370</v>
+      </c>
+      <c r="N29" s="7">
+        <v>261887</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25731</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H30" s="7">
+        <v>42</v>
+      </c>
+      <c r="I30" s="7">
+        <v>30496</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M30" s="7">
+        <v>77</v>
+      </c>
+      <c r="N30" s="7">
+        <v>56227</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3864</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4763</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8626</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>492</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>358652</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>508</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>355286</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>1000</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>713937</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>54</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6852B3AB-D9C2-4313-A932-BC932A73796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4C28D8-5D60-4949-A1C1-6C3455E5EBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B19C7D8-5452-4E63-98B9-C6BFC6A0B9B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65C0D5B6-3D9D-40C6-88B2-62C240F5528C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="348">
   <si>
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
@@ -97,220 +97,217 @@
     <t>42,73%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>49,45%</t>
   </si>
   <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
   <si>
     <t>42,62%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>38,0%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>47,0%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -319,766 +316,772 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3FE17-D49F-4F99-BD4C-3681FE00C4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F20218-77BA-4635-A62E-8B11984292FC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2472,7 +2475,7 @@
         <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -2481,13 +2484,13 @@
         <v>95430</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>299</v>
@@ -2496,13 +2499,13 @@
         <v>199749</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2520,13 @@
         <v>80398</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -2532,13 +2535,13 @@
         <v>79540</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -2547,13 +2550,13 @@
         <v>159938</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2571,13 @@
         <v>18079</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2583,13 +2586,13 @@
         <v>16908</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2598,13 +2601,13 @@
         <v>34987</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2622,13 @@
         <v>680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2640,7 +2643,7 @@
         <v>56</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2649,13 +2652,13 @@
         <v>680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2679,7 @@
         <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2685,13 +2688,13 @@
         <v>537</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2700,13 +2703,13 @@
         <v>537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2777,13 @@
         <v>163687</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H28" s="7">
         <v>235</v>
@@ -2789,13 +2792,13 @@
         <v>158176</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>482</v>
@@ -2804,13 +2807,13 @@
         <v>321863</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2858,7 @@
         <v>267362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>113</v>
@@ -2897,7 +2900,7 @@
         <v>119</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>101</v>
@@ -2906,13 +2909,13 @@
         <v>67196</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +2930,10 @@
         <v>2165</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>124</v>
@@ -2945,10 +2948,10 @@
         <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -2957,13 +2960,13 @@
         <v>4126</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +2996,7 @@
         <v>537</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
@@ -3090,7 +3093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA9C0D9-C973-40A3-BEFD-9EC4DF2D3C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA35F39-8D2A-458C-9A5A-10647ECCC2BD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3941,7 +3944,7 @@
         <v>2092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>133</v>
@@ -3983,7 +3986,7 @@
         <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3998,7 +4001,7 @@
         <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4069,13 @@
         <v>92877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -4081,13 +4084,13 @@
         <v>86305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -4096,13 +4099,13 @@
         <v>179183</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4120,13 @@
         <v>64498</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4132,13 +4135,13 @@
         <v>57291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>180</v>
@@ -4147,13 +4150,13 @@
         <v>121789</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4171,13 @@
         <v>13240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4183,13 +4186,13 @@
         <v>21469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -4198,13 +4201,13 @@
         <v>34710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4222,13 @@
         <v>2192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4234,13 +4237,13 @@
         <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4252,10 +4255,10 @@
         <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4273,13 @@
         <v>767</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4291,7 +4294,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4300,13 +4303,13 @@
         <v>767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4377,13 @@
         <v>176586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>250</v>
@@ -4389,13 +4392,13 @@
         <v>175299</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -4404,13 +4407,13 @@
         <v>351886</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4428,13 @@
         <v>121669</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
@@ -4440,13 +4443,13 @@
         <v>110619</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>335</v>
@@ -4455,13 +4458,13 @@
         <v>232288</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4479,13 @@
         <v>28471</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -4491,13 +4494,13 @@
         <v>33133</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
         <v>87</v>
@@ -4506,13 +4509,13 @@
         <v>61604</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4530,13 @@
         <v>2756</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4542,13 +4545,13 @@
         <v>2206</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4557,13 +4560,13 @@
         <v>4962</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4581,13 @@
         <v>767</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4599,7 +4602,7 @@
         <v>56</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4608,13 +4611,13 @@
         <v>767</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,7 +4693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2970FA-6F94-4E1E-9DFB-776D57FFCC8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEABD11E-C030-4BBF-866E-EC7B22ABD2C1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4707,7 +4710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5358,13 +5361,13 @@
         <v>104820</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -5373,13 +5376,13 @@
         <v>106630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -5388,13 +5391,13 @@
         <v>211451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5412,13 @@
         <v>64536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -5424,13 +5427,13 @@
         <v>58615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -5439,13 +5442,13 @@
         <v>123151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5463,13 @@
         <v>15257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -5475,13 +5478,13 @@
         <v>18043</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5490,13 +5493,13 @@
         <v>33299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5514,13 @@
         <v>708</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5526,13 +5529,13 @@
         <v>1895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5541,13 +5544,13 @@
         <v>2603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,7 +5571,7 @@
         <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5583,7 +5586,7 @@
         <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5598,7 +5601,7 @@
         <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5669,13 @@
         <v>90506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -5681,13 +5684,13 @@
         <v>85240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>242</v>
@@ -5696,13 +5699,13 @@
         <v>175746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5720,13 @@
         <v>69195</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -5732,13 +5735,13 @@
         <v>69541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>196</v>
@@ -5747,13 +5750,13 @@
         <v>138736</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5771,13 @@
         <v>10474</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5783,13 +5786,13 @@
         <v>12453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -5798,13 +5801,13 @@
         <v>22928</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5822,13 @@
         <v>3155</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5834,13 +5837,13 @@
         <v>2868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5849,13 +5852,13 @@
         <v>6023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,7 +5879,7 @@
         <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5891,7 +5894,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5906,7 +5909,7 @@
         <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5977,13 @@
         <v>195326</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>275</v>
@@ -5989,13 +5992,13 @@
         <v>191871</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>541</v>
@@ -6004,13 +6007,13 @@
         <v>387197</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6028,13 @@
         <v>133731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -6040,13 +6043,13 @@
         <v>128156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -6055,13 +6058,13 @@
         <v>261887</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6079,13 @@
         <v>25731</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -6091,13 +6094,13 @@
         <v>30496</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -6130,10 +6133,10 @@
         <v>341</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -6142,13 +6145,13 @@
         <v>4763</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>343</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -6157,13 +6160,13 @@
         <v>8626</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6187,7 @@
         <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6199,7 +6202,7 @@
         <v>56</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>

--- a/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4C28D8-5D60-4949-A1C1-6C3455E5EBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3D3026-5A68-45C6-9849-4C1F2A09A198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65C0D5B6-3D9D-40C6-88B2-62C240F5528C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D368AB42-367F-4A56-8F5E-C15D9D3F3A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,85 +94,94 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>42,62%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>1,07%</t>
@@ -181,904 +190,895 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -1493,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F20218-77BA-4635-A62E-8B11984292FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5105473-B2E0-4746-910C-AECCD0C9590A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,10 +2155,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>59369</v>
+        <v>62746</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2170,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>62746</v>
+        <v>59369</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2206,10 +2206,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>59210</v>
+        <v>48215</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2221,10 +2221,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>48215</v>
+        <v>59210</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2257,10 +2257,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>18236</v>
+        <v>13973</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2272,10 +2272,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>13973</v>
+        <v>18236</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2308,10 +2308,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1486</v>
+        <v>1960</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2323,10 +2323,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1960</v>
+        <v>1486</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2347,10 +2347,10 @@
         <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,34 +2359,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>635</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="K20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2395,13 +2395,13 @@
         <v>635</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,34 +2410,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>208</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>138936</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126894</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>398</v>
@@ -2446,42 +2446,42 @@
         <v>265830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>141</v>
+      </c>
+      <c r="D22" s="7">
+        <v>95430</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="7">
         <v>158</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>104319</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="7">
-        <v>141</v>
-      </c>
-      <c r="I22" s="7">
-        <v>95430</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -2514,10 +2514,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>80398</v>
+        <v>79540</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>70</v>
@@ -2529,10 +2529,10 @@
         <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I23" s="7">
-        <v>79540</v>
+        <v>80398</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>73</v>
@@ -2565,10 +2565,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>18079</v>
+        <v>16908</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>79</v>
@@ -2580,10 +2580,10 @@
         <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>16908</v>
+        <v>18079</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>82</v>
@@ -2616,31 +2616,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>680</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>90</v>
@@ -2655,7 +2655,7 @@
         <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>92</v>
@@ -2667,31 +2667,31 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>95</v>
@@ -2706,7 +2706,7 @@
         <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>97</v>
@@ -2718,34 +2718,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>284</v>
+      </c>
+      <c r="D27" s="7">
+        <v>192415</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203475</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>284</v>
-      </c>
-      <c r="I27" s="7">
-        <v>192415</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>590</v>
@@ -2754,13 +2754,13 @@
         <v>395890</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,10 +2771,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D28" s="7">
-        <v>163687</v>
+        <v>158176</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>98</v>
@@ -2786,10 +2786,10 @@
         <v>100</v>
       </c>
       <c r="H28" s="7">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I28" s="7">
-        <v>158176</v>
+        <v>163687</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>101</v>
@@ -2822,10 +2822,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D29" s="7">
-        <v>139608</v>
+        <v>127755</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>107</v>
@@ -2837,10 +2837,10 @@
         <v>109</v>
       </c>
       <c r="H29" s="7">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="I29" s="7">
-        <v>127755</v>
+        <v>139608</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>110</v>
@@ -2873,10 +2873,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D30" s="7">
-        <v>36315</v>
+        <v>30881</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>115</v>
@@ -2888,10 +2888,10 @@
         <v>117</v>
       </c>
       <c r="H30" s="7">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I30" s="7">
-        <v>30881</v>
+        <v>36315</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>118</v>
@@ -2915,7 +2915,7 @@
         <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,31 +2927,31 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>2165</v>
+        <v>1960</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>1960</v>
+        <v>2165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -2960,13 +2960,13 @@
         <v>4126</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,28 +2978,28 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>635</v>
+        <v>537</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>132</v>
@@ -3014,10 +3014,10 @@
         <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,34 +3026,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>474</v>
+      </c>
+      <c r="D33" s="7">
+        <v>319309</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>514</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>342410</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>474</v>
-      </c>
-      <c r="I33" s="7">
-        <v>319309</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>988</v>
@@ -3062,18 +3062,18 @@
         <v>661719</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3093,7 +3093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA35F39-8D2A-458C-9A5A-10647ECCC2BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1680DD9D-4497-4D53-9850-3EEBDDF9DBED}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,7 +3110,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3755,34 +3755,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>128</v>
+      </c>
+      <c r="D16" s="7">
+        <v>88994</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7">
         <v>122</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>83709</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="7">
-        <v>128</v>
-      </c>
-      <c r="I16" s="7">
-        <v>88994</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>250</v>
@@ -3791,13 +3791,13 @@
         <v>172703</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,34 +3806,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>74</v>
+      </c>
+      <c r="D17" s="7">
+        <v>53329</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="7">
         <v>81</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>57171</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="7">
-        <v>74</v>
-      </c>
-      <c r="I17" s="7">
-        <v>53329</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
@@ -3842,13 +3842,13 @@
         <v>110500</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,34 +3857,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11664</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="7">
         <v>21</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15230</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11664</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3893,13 +3893,13 @@
         <v>26894</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,34 +3908,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1528</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>564</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1528</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3944,13 +3944,13 @@
         <v>2092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,43 +3965,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,34 +4010,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -4046,51 +4046,51 @@
         <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>122</v>
+      </c>
+      <c r="D22" s="7">
+        <v>86305</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="7">
         <v>135</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>92877</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="7">
-        <v>122</v>
-      </c>
-      <c r="I22" s="7">
-        <v>86305</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -4099,13 +4099,13 @@
         <v>179183</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,34 +4114,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>83</v>
+      </c>
+      <c r="D23" s="7">
+        <v>57291</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="7">
         <v>97</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>64498</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="7">
-        <v>83</v>
-      </c>
-      <c r="I23" s="7">
-        <v>57291</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>180</v>
@@ -4150,13 +4150,13 @@
         <v>121789</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,34 +4165,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21469</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>13240</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>21469</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -4201,13 +4201,13 @@
         <v>34710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,34 +4216,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>678</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2192</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>678</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4252,13 +4252,13 @@
         <v>2870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,34 +4267,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>767</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4303,13 +4303,13 @@
         <v>767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,34 +4318,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>165744</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>256</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173574</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>235</v>
-      </c>
-      <c r="I27" s="7">
-        <v>165744</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>491</v>
@@ -4354,13 +4354,13 @@
         <v>339318</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,34 +4371,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>250</v>
+      </c>
+      <c r="D28" s="7">
+        <v>175299</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="7">
         <v>257</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>176586</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H28" s="7">
-        <v>250</v>
-      </c>
-      <c r="I28" s="7">
-        <v>175299</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -4407,13 +4407,13 @@
         <v>351886</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,34 +4422,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>157</v>
+      </c>
+      <c r="D29" s="7">
+        <v>110619</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="7">
         <v>178</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>121669</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H29" s="7">
-        <v>157</v>
-      </c>
-      <c r="I29" s="7">
-        <v>110619</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>335</v>
@@ -4458,13 +4458,13 @@
         <v>232288</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,34 +4473,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7">
+        <v>33133</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="7">
         <v>41</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>28471</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H30" s="7">
-        <v>46</v>
-      </c>
-      <c r="I30" s="7">
-        <v>33133</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="M30" s="7">
         <v>87</v>
@@ -4509,13 +4509,13 @@
         <v>61604</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,34 +4524,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2206</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>2756</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2206</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4560,13 +4560,13 @@
         <v>4962</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,34 +4575,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>767</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4611,13 +4611,13 @@
         <v>767</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,34 +4626,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>456</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321258</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>481</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>330248</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>456</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321258</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>937</v>
@@ -4662,18 +4662,18 @@
         <v>651506</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEABD11E-C030-4BBF-866E-EC7B22ABD2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A92084-2B76-4CF6-B06B-E93FBBE0C8B2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4710,7 +4710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5355,34 +5355,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>155</v>
+      </c>
+      <c r="D16" s="7">
+        <v>106630</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="7">
         <v>144</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>104820</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="7">
-        <v>155</v>
-      </c>
-      <c r="I16" s="7">
-        <v>106630</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -5391,13 +5391,13 @@
         <v>211451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,34 +5406,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7">
+        <v>58615</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="7">
         <v>92</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>64536</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="7">
-        <v>82</v>
-      </c>
-      <c r="I17" s="7">
-        <v>58615</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -5442,13 +5442,13 @@
         <v>123151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,34 +5457,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>18043</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
         <v>21</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15257</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="H18" s="7">
-        <v>26</v>
-      </c>
-      <c r="I18" s="7">
-        <v>18043</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5493,13 +5493,13 @@
         <v>33299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,34 +5508,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1895</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>708</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1895</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5544,13 +5544,13 @@
         <v>2603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5580,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,34 +5610,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>266</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185183</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>258</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185321</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>266</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185183</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>524</v>
@@ -5646,51 +5646,51 @@
         <v>370505</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>120</v>
+      </c>
+      <c r="D22" s="7">
+        <v>85240</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="7">
         <v>122</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>90506</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="H22" s="7">
-        <v>120</v>
-      </c>
-      <c r="I22" s="7">
-        <v>85240</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>242</v>
@@ -5699,13 +5699,13 @@
         <v>175746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,34 +5714,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7">
+        <v>69541</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="7">
         <v>94</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>69195</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H23" s="7">
-        <v>102</v>
-      </c>
-      <c r="I23" s="7">
-        <v>69541</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>196</v>
@@ -5753,10 +5753,10 @@
         <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,34 +5765,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12453</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H24" s="7">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>10474</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="H24" s="7">
-        <v>16</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12453</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -5801,13 +5801,13 @@
         <v>22928</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>306</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,31 +5819,31 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3155</v>
+        <v>2868</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2868</v>
+        <v>3155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5852,13 +5852,13 @@
         <v>6023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5888,13 +5888,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,34 +5918,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170102</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173330</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170102</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -5954,13 +5954,13 @@
         <v>343433</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,34 +5971,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>275</v>
+      </c>
+      <c r="D28" s="7">
+        <v>191871</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="7">
         <v>266</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>195326</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H28" s="7">
-        <v>275</v>
-      </c>
-      <c r="I28" s="7">
-        <v>191871</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>541</v>
@@ -6007,13 +6007,13 @@
         <v>387197</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,34 +6022,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>184</v>
+      </c>
+      <c r="D29" s="7">
+        <v>128156</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="7">
         <v>186</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>133731</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H29" s="7">
-        <v>184</v>
-      </c>
-      <c r="I29" s="7">
-        <v>128156</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -6058,13 +6058,13 @@
         <v>261887</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,34 +6073,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>42</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30496</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H30" s="7">
         <v>35</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>25731</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H30" s="7">
-        <v>42</v>
-      </c>
-      <c r="I30" s="7">
-        <v>30496</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -6115,7 +6115,7 @@
         <v>339</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,31 +6124,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>3864</v>
+        <v>4763</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>342</v>
       </c>
       <c r="H31" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>4763</v>
+        <v>3864</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>343</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>344</v>
@@ -6163,7 +6163,7 @@
         <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>346</v>
@@ -6181,29 +6181,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,34 +6226,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>508</v>
+      </c>
+      <c r="D33" s="7">
+        <v>355286</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>358652</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>508</v>
-      </c>
-      <c r="I33" s="7">
-        <v>355286</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1000</v>
@@ -6262,18 +6262,18 @@
         <v>713937</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
